--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1802598.122217288</v>
+        <v>1800346.042506079</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>399.0558722095872</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>78.96122915361011</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>273.1222025221964</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>125.8006610335169</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>376.2274714067175</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -947,19 +947,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>17.35112070699578</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>25.01141625626368</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1114,7 +1114,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>36.69369469525667</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>301.9029411358577</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>231.4760253798836</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.0100170058541</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>192.1675620474802</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620684</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>117.8112368377027</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182088</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>20.38427178198423</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>77.73359659137272</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>111.3213230702139</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187885</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>126.9263824507425</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671011749</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>275.3300239197315</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229299</v>
       </c>
       <c r="G22" t="n">
-        <v>103.1686991936197</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.9855643708048</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>85.71023095289493</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>194.5707234541129</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>114.6820364666631</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.4844875583191</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>139.511541534052</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>33.48499328953065</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>41.33703994143007</v>
+        <v>42.71572132711287</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856552</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.08971311158757</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>124.9362388746463</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>-1.213831377393086e-12</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>61.62152140683546</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>171.1477359514047</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>162.3413016667501</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1624.638712032429</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.638712032429</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1266.373013425679</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>880.5847608274346</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>469.598856037827</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539435</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008241</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.638712032429</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4383,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>994.2880032601528</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="C4" t="n">
-        <v>825.3518203322459</v>
+        <v>530.5487792519424</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199101</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E4" t="n">
-        <v>527.322087337517</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F4" t="n">
         <v>380.4321398396066</v>
@@ -4480,22 +4480,22 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U4" t="n">
-        <v>1651.413535439809</v>
+        <v>1356.67533979849</v>
       </c>
       <c r="V4" t="n">
-        <v>1396.729047233923</v>
+        <v>1229.60396501716</v>
       </c>
       <c r="W4" t="n">
-        <v>1396.729047233923</v>
+        <v>940.1867949801995</v>
       </c>
       <c r="X4" t="n">
-        <v>1396.729047233923</v>
+        <v>712.1972440821821</v>
       </c>
       <c r="Y4" t="n">
-        <v>1175.936468090393</v>
+        <v>712.1972440821821</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1935.366530930991</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1566.404013990579</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1208.138315383829</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4577,16 +4577,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>3197.788768583745</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>1935.366530930991</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445192</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1902.030491263984</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1680.26387583351</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1391.161008959154</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1136.476520753267</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>847.0593507163063</v>
+        <v>843.1598980861128</v>
       </c>
       <c r="X7" t="n">
-        <v>619.069799818289</v>
+        <v>615.1703471880954</v>
       </c>
       <c r="Y7" t="n">
-        <v>398.2772206747588</v>
+        <v>394.3777680445653</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694471</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.60683175406</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473092</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>764.3411331473092</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>353.3552283577016</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3231822431022</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758593</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="9">
@@ -4875,19 +4875,19 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>625.8811108217975</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
         <v>315.6219318279954</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1679.878215082532</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1390.775348208175</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1136.090860002288</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>846.6736899653276</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>625.8811108217975</v>
       </c>
     </row>
     <row r="11">
@@ -5018,34 +5018,34 @@
         <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5063,22 +5063,22 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
         <v>3094.51519859181</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797191</v>
+        <v>372.4964262156759</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637308</v>
+        <v>867.8220324314346</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890283</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.11872044489</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684177</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263163</v>
+        <v>734.6461798836018</v>
       </c>
       <c r="C13" t="n">
-        <v>680.4481746984094</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740951</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535064</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498103</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.825401600086</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.032822456556</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,19 +5273,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5294,10 +5294,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637308</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245697</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403286</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5680,7 +5680,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832668</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832668</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855609</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5762,10 +5762,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694708</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349513</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.04349261611</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>558.0193492433367</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>558.0193492433367</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310009</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310009</v>
       </c>
       <c r="F22" t="n">
-        <v>198.0274703142544</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797189</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>960.4603932171066</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>739.6678140735764</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5966,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
         <v>407.9027098310023</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2110.486554626058</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1821.411327970255</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1566.726839764368</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="26">
@@ -6203,34 +6203,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
         <v>2206.55866301478</v>
@@ -6239,34 +6239,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>801.6605733532801</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="C28" t="n">
-        <v>632.7243904253733</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253733</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.076938957246</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.475473980187</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.400247324385</v>
+        <v>1735.557557724331</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.715759118498</v>
+        <v>1480.873069518444</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.298589081537</v>
+        <v>1191.455899481483</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3090381835199</v>
+        <v>963.4663485834661</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3090381835199</v>
+        <v>963.4663485834661</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6440,16 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694708</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280583</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>950.7540666811332</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>781.8178837532263</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1943.637854965528</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.953366759641</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1399.536196722681</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1171.546645824663</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>950.7540666811332</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>526.5658826424045</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000582</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,28 +6923,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6959,25 +6959,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836018</v>
+        <v>741.8431516380904</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556949</v>
+        <v>741.8431516380904</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>591.7265122257546</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>443.8134186433615</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>443.8134186433615</v>
       </c>
       <c r="G37" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138415</v>
+        <v>923.4916164683301</v>
       </c>
     </row>
     <row r="38">
@@ -7151,10 +7151,10 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,55 +7166,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>527.7722521572588</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>379.8591585748657</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>379.8591585748657</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7403,13 +7403,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075794</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782958</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>49.43558426092518</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>265.8002026072599</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>70.88187642683964</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>106.0841272570744</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>40.32043864788533</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>10.85445046951264</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>62.35543909864913</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>43.72409101823237</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>131.6952193743933</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>31.13893193492422</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>66.34424953498153</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.69998683092504</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>40.32043864788525</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856421</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>252.6994810997135</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>107.2784330767823</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>68.52575990662478</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>40.58789941762251</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25375,10 +25375,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>103.9026168854334</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>40.32043864788527</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>47.43691740069013</v>
       </c>
     </row>
     <row r="44">
@@ -26029,7 +26029,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>894208.8379393388</v>
+        <v>894208.8379393389</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879271.5300019906</v>
+        <v>879271.5300019907</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>879271.5300019907</v>
+        <v>879271.5300019906</v>
       </c>
     </row>
     <row r="13">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583916</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907545</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="H2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907542</v>
@@ -26344,13 +26344,13 @@
         <v>544823.954790754</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="N2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="P2" t="n">
         <v>544823.9547907538</v>
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.370099883548738e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972772</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551201</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316948</v>
+        <v>91573.95495316946</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.9201818181</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181804</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181813</v>
@@ -26439,13 +26439,13 @@
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
+        <v>12386.92018181818</v>
+      </c>
+      <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="K4" t="n">
-        <v>12386.92018181808</v>
-      </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
@@ -26476,7 +26476,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26522,46 @@
         <v>-974049.4465837638</v>
       </c>
       <c r="C6" t="n">
+        <v>354695.2991438286</v>
+      </c>
+      <c r="D6" t="n">
         <v>354695.2991438288</v>
       </c>
-      <c r="D6" t="n">
-        <v>354695.299143829</v>
-      </c>
       <c r="E6" t="n">
-        <v>105902.0429776734</v>
+        <v>105867.3050522377</v>
       </c>
       <c r="F6" t="n">
-        <v>431314.5047850292</v>
+        <v>431279.7668595931</v>
       </c>
       <c r="G6" t="n">
-        <v>431314.504785029</v>
+        <v>431279.7668595929</v>
       </c>
       <c r="H6" t="n">
-        <v>431314.5047850288</v>
+        <v>431279.7668595932</v>
       </c>
       <c r="I6" t="n">
-        <v>431314.504785029</v>
+        <v>431279.7668595932</v>
       </c>
       <c r="J6" t="n">
-        <v>213783.3023877516</v>
+        <v>213748.564462316</v>
       </c>
       <c r="K6" t="n">
-        <v>431314.5047850289</v>
+        <v>431279.7668595932</v>
       </c>
       <c r="L6" t="n">
-        <v>431314.5047850289</v>
+        <v>431279.7668595931</v>
       </c>
       <c r="M6" t="n">
-        <v>346259.4768495166</v>
+        <v>346224.7389240813</v>
       </c>
       <c r="N6" t="n">
-        <v>431314.5047850287</v>
+        <v>431279.766859593</v>
       </c>
       <c r="O6" t="n">
-        <v>431314.5047850287</v>
+        <v>431279.7668595932</v>
       </c>
       <c r="P6" t="n">
-        <v>431314.5047850287</v>
+        <v>431279.7668595929</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26960,13 +26960,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.962624854435923e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973564</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.86585344386629</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>307.2767095024435</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>13.08963568341647</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>126.3369822903111</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>5.70289866554424</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>331.8898480104172</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>164.7576090751782</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27834,7 +27834,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>249.8293036413343</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>80.83090052762287</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>63.13173900743683</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>33.75900832558784</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>94.35543628911083</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28093,10 +28093,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.916515846374476e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-5.745110207672475e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28251,7 +28251,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-8.207266606532238e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28968,7 +28968,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -29466,7 +29466,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>3.460345829981158e-12</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-6.501964040707998e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29688,7 +29688,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -30207,7 +30207,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30384,7 +30384,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31835,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>266.3926848685833</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704897</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32081,28 +32081,28 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>506.5665344352321</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551096</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>512.9101366533177</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,10 +32336,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,16 +32546,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>551.7051287319848</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991327</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,34 +33257,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>229.6463482471735</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>379.4203056753698</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33731,10 +33731,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422586</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>510.8679233250717</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33971,13 +33971,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
@@ -33992,10 +33992,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34126,13 +34126,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
         <v>867.8464071162563</v>
@@ -34211,28 +34211,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>391.6051949514474</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561594</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35729,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>364.4325005132138</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075059</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>370.3138922088733</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>409.1088842875403</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899108</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>91.80490927281451</v>
       </c>
       <c r="L30" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
         <v>735.300110790295</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37379,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>379.5262112417385</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37619,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37640,10 +37640,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
         <v>632.079992146269</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>253.0508151715732</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
